--- a/examples/python/dompc/setpoint_tvp.xlsx
+++ b/examples/python/dompc/setpoint_tvp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nlong/working/controls/MODRLC/examples/python/dompc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9BEE3D-FA6C-8340-A149-7DC7802BF5F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6B39EF-0122-FF43-9344-0150653882D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2260" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13697,15 +13697,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>755650</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>527050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14032,14 +14032,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2041"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
     <col min="7" max="7" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16990,7 +16991,7 @@
         <v>43466.374999999651</v>
       </c>
       <c r="C110" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D110" s="2">
         <f t="shared" si="4"/>
@@ -17017,7 +17018,7 @@
         <v>43466.37847222187</v>
       </c>
       <c r="C111" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D111" s="2">
         <f t="shared" si="4"/>
@@ -17044,7 +17045,7 @@
         <v>43466.381944444089</v>
       </c>
       <c r="C112" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D112" s="2">
         <f t="shared" si="4"/>
@@ -17071,7 +17072,7 @@
         <v>43466.385416666308</v>
       </c>
       <c r="C113" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D113" s="2">
         <f t="shared" si="4"/>
@@ -17098,7 +17099,7 @@
         <v>43466.388888888527</v>
       </c>
       <c r="C114" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D114" s="2">
         <f t="shared" si="4"/>
@@ -17125,7 +17126,7 @@
         <v>43466.392361110746</v>
       </c>
       <c r="C115" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D115" s="2">
         <f t="shared" si="4"/>
@@ -17152,7 +17153,7 @@
         <v>43466.395833332965</v>
       </c>
       <c r="C116" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D116" s="2">
         <f t="shared" si="4"/>
